--- a/info/Gravicapa_Zakupka_Itogovaya.xlsx
+++ b/info/Gravicapa_Zakupka_Itogovaya.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
   <si>
     <t>№</t>
   </si>
@@ -41,22 +41,13 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Одноплатный компьютер</t>
-  </si>
-  <si>
     <t>Raspberry Pi 3</t>
   </si>
   <si>
-    <t>Спутниковый модем</t>
-  </si>
-  <si>
     <t>Ссылка</t>
   </si>
   <si>
     <t>http://smartelectronika.com/viewproduct/102/</t>
-  </si>
-  <si>
-    <t>Счётчик Гейгера</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.chipdip.ru/product/sbm20-1
@@ -69,30 +60,18 @@
     <t>СБМ20-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Датчик CO </t>
-  </si>
-  <si>
     <t>https://www.chipdip.ru/product/mq-7-gas-sensor</t>
   </si>
   <si>
     <t>MQ-7</t>
   </si>
   <si>
-    <t>GPS модуль</t>
-  </si>
-  <si>
     <t>NEO-M8N</t>
   </si>
   <si>
     <t>http://iarduino.ru/shop/Expansion-payments/gps-modul-neo-m8n.html</t>
   </si>
   <si>
-    <t>Датчик качества воздуха</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>http://www.platan.ru/cgi-bin/qwery.pl/id=494567857</t>
   </si>
   <si>
@@ -211,13 +190,196 @@
   </si>
   <si>
     <t>Micro SD Card модуль</t>
+  </si>
+  <si>
+    <t>http://smartelectronika.com/viewproduct/50/</t>
+  </si>
+  <si>
+    <t>Корпус для B+,2,3 с кулером</t>
+  </si>
+  <si>
+    <t>Трубка Гейгера</t>
+  </si>
+  <si>
+    <t>Датчик CO</t>
+  </si>
+  <si>
+    <t>GPS -  приемник</t>
+  </si>
+  <si>
+    <t>ВЧ-разъем</t>
+  </si>
+  <si>
+    <t>П-П-разъем</t>
+  </si>
+  <si>
+    <t>Антенна Иридиум</t>
+  </si>
+  <si>
+    <t>DC-DC преобразователь</t>
+  </si>
+  <si>
+    <t>Индуктивность</t>
+  </si>
+  <si>
+    <t>Резистор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Операционный усилитель </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конденсатор </t>
+  </si>
+  <si>
+    <t>Конденсатор</t>
+  </si>
+  <si>
+    <t>Транзистор NPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диод Шоттки </t>
+  </si>
+  <si>
+    <t>Пьезоизлучатель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Транзистор N-канал </t>
+  </si>
+  <si>
+    <t>Диод</t>
+  </si>
+  <si>
+    <t>Аккумулятор Крона</t>
+  </si>
+  <si>
+    <t>Зарядное устройство для кроны</t>
+  </si>
+  <si>
+    <t>КТ203</t>
+  </si>
+  <si>
+    <t>Транзистор PNP</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/kt203am</t>
+  </si>
+  <si>
+    <t>Iridium 9602 modem</t>
+  </si>
+  <si>
+    <t>http://www.metae.ru/0975-031-04.html</t>
+  </si>
+  <si>
+    <t>Шпилька резьбовая м3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпилька М3 x 1000 резьбовая DIN 975, нержавеющая A4 </t>
+  </si>
+  <si>
+    <t>Гайка DIN 934 М3, 30 шт.</t>
+  </si>
+  <si>
+    <t>Гайка DIN 934 М3</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/shayba-din-125a-m3-10965615/</t>
+  </si>
+  <si>
+    <t>Шайба DIN 125A М3, 50 шт.</t>
+  </si>
+  <si>
+    <t>Шайба DIN 125A М3</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/gayka-din-934-m3-10963783/</t>
+  </si>
+  <si>
+    <t>NE555P, Прецизионный таймер [DIP-8] (КР1006ВИ1, =LM555)</t>
+  </si>
+  <si>
+    <t>Прецизионный таймер</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ne555p</t>
+  </si>
+  <si>
+    <t>TRS- 8 (SCSM-8) (DS1001-01-8N)</t>
+  </si>
+  <si>
+    <t>DIP-панель 8x</t>
+  </si>
+  <si>
+    <t>К10-17А М47 100пФ</t>
+  </si>
+  <si>
+    <t>К73-17, 0.022 мкФ, 400В</t>
+  </si>
+  <si>
+    <t>ECAP (К50-35), 1 мкФ, 450 В</t>
+  </si>
+  <si>
+    <t>ECAP (К50-35 мини), 100 мкФ, 16 В</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/14560</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/trs-8</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/31174</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/26568</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/9000247127</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ca6v-10-kom</t>
+  </si>
+  <si>
+    <t>CA6V, 10 кОм</t>
+  </si>
+  <si>
+    <t>Резистор переменный</t>
+  </si>
+  <si>
+    <t>BA159</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ba159</t>
+  </si>
+  <si>
+    <t>2N6517BU</t>
+  </si>
+  <si>
+    <t>Транзистор</t>
+  </si>
+  <si>
+    <t>BC546BTA</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/2n6517bu</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/bc546bta</t>
+  </si>
+  <si>
+    <t>https://www.eldorado.ru/cat/detail/71177124/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта памяти TRANSCEND microSDHC 16Gb </t>
+  </si>
+  <si>
+    <t>SD-карта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +397,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +413,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,12 +421,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -286,11 +470,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,47 +787,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="53.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="59.44140625" customWidth="1"/>
+    <col min="7" max="7" width="80.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -645,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
         <v>2890</v>
@@ -658,14 +848,16 @@
         <v>2890</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
         <v>7800</v>
@@ -678,19 +870,19 @@
         <v>7800</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A2 +1</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="6">
         <v>1960</v>
@@ -702,8 +894,8 @@
         <f t="shared" ref="F4:F25" si="1">D4*E4</f>
         <v>1960</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -712,10 +904,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6">
         <v>5010</v>
@@ -728,14 +920,16 @@
         <v>5010</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
         <v>650</v>
@@ -748,7 +942,7 @@
         <v>650</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -757,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6">
         <v>2610</v>
@@ -773,7 +967,7 @@
         <v>2610</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -782,23 +976,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6">
         <v>370</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>740</v>
+        <v>2220</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -807,73 +1001,79 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10">
         <v>450</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>1350</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="10">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6">
         <v>200</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>56</v>
+        <v>400</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D11" s="10">
         <v>30</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
+      <c r="B12" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10">
         <v>5</v>
@@ -886,13 +1086,16 @@
         <v>5</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
+      <c r="B13" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -905,13 +1108,16 @@
         <v>40</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D14" s="10">
         <v>17</v>
@@ -924,13 +1130,16 @@
         <v>17</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10">
         <v>8</v>
@@ -943,13 +1152,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
+      <c r="B16" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10">
         <v>8</v>
@@ -962,13 +1174,16 @@
         <v>16</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10">
         <v>8</v>
@@ -981,13 +1196,16 @@
         <v>8</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
+      <c r="B18" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D18" s="10">
         <v>6</v>
@@ -1000,231 +1218,592 @@
         <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
+      <c r="B19" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D19" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E19" s="5">
         <v>10</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
+      <c r="B20" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
+      <c r="B21" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
+      <c r="B22" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D22" s="10">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>4</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
+      <c r="B23" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D23" s="10">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
+      <c r="B24" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D24" s="10">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
+      <c r="B25" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D25" s="10">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="5">
-        <f>D25*E25</f>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
+      <c r="B26" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D26" s="10">
-        <v>790</v>
+        <v>600</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="5">
         <f>D26*E26</f>
+        <v>600</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10">
         <v>790</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="C27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="10">
-        <v>50</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="5">
         <f>D27*E27</f>
-        <v>50</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>61</v>
+        <v>790</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
+      <c r="B28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="10">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <f>D28*E28</f>
+        <v>50</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="8"/>
+      <c r="B29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="10">
+        <v>590</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <f>D29*E29</f>
+        <v>590</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="3"/>
-      <c r="F30">
-        <f>SUM(F2:F29)</f>
-        <v>24241</v>
+      <c r="B30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="10">
+        <v>124.6</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9">
+        <f>D30*E30</f>
+        <v>249.2</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="10">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <f>D31*E31</f>
+        <v>20</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="10">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9">
+        <f>D32*E32</f>
+        <v>22</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10">
+        <v>9</v>
+      </c>
+      <c r="E33" s="5">
+        <v>10</v>
+      </c>
+      <c r="F33" s="9">
+        <f>D33*E33</f>
+        <v>90</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="10">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9">
+        <f>D34*E34</f>
+        <v>120</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10">
+        <v>34</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5</v>
+      </c>
+      <c r="F35" s="9">
+        <f>D35*E35</f>
+        <v>170</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="10">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5">
+        <v>5</v>
+      </c>
+      <c r="F36" s="9">
+        <f>D36*E36</f>
+        <v>40</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="10">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5</v>
+      </c>
+      <c r="F37" s="9">
+        <f>D37*E37</f>
+        <v>25</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="10">
+        <v>5</v>
+      </c>
+      <c r="E38" s="5">
+        <v>9</v>
+      </c>
+      <c r="F38" s="9">
+        <f>D38*E38</f>
+        <v>45</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="10">
+        <v>20</v>
+      </c>
+      <c r="E39" s="5">
+        <v>5</v>
+      </c>
+      <c r="F39" s="9">
+        <f>D39*E39</f>
+        <v>100</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="10">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5">
+        <v>10</v>
+      </c>
+      <c r="F40" s="9">
+        <f>D40*E40</f>
+        <v>30</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="10">
+        <v>5</v>
+      </c>
+      <c r="E41" s="5">
+        <v>5</v>
+      </c>
+      <c r="F41" s="9">
+        <f>D41*E41</f>
+        <v>25</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="10">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5</v>
+      </c>
+      <c r="F42" s="9">
+        <f>D42*E42</f>
+        <v>15</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1299</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" s="9">
+        <f>D43*E43</f>
+        <v>2598</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="F44">
+        <f>SUM(F2:F43)</f>
+        <v>31190.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1239,15 +1818,40 @@
     <hyperlink ref="G11" r:id="rId9"/>
     <hyperlink ref="G16" r:id="rId10"/>
     <hyperlink ref="G17" r:id="rId11"/>
-    <hyperlink ref="G23" r:id="rId12"/>
+    <hyperlink ref="G24" r:id="rId12"/>
     <hyperlink ref="G3" r:id="rId13"/>
-    <hyperlink ref="G25" r:id="rId14"/>
-    <hyperlink ref="G26" r:id="rId15"/>
-    <hyperlink ref="G27" r:id="rId16"/>
+    <hyperlink ref="G26" r:id="rId14"/>
+    <hyperlink ref="G27" r:id="rId15"/>
+    <hyperlink ref="G28" r:id="rId16"/>
     <hyperlink ref="G12" r:id="rId17"/>
+    <hyperlink ref="G29" r:id="rId18"/>
+    <hyperlink ref="G13" r:id="rId19"/>
+    <hyperlink ref="G14" r:id="rId20"/>
+    <hyperlink ref="G15" r:id="rId21"/>
+    <hyperlink ref="G18" r:id="rId22"/>
+    <hyperlink ref="G20" r:id="rId23"/>
+    <hyperlink ref="G21" r:id="rId24"/>
+    <hyperlink ref="G22" r:id="rId25"/>
+    <hyperlink ref="G23" r:id="rId26"/>
+    <hyperlink ref="G25" r:id="rId27"/>
+    <hyperlink ref="G19" r:id="rId28"/>
+    <hyperlink ref="G30" r:id="rId29"/>
+    <hyperlink ref="G31" r:id="rId30"/>
+    <hyperlink ref="G32" r:id="rId31"/>
+    <hyperlink ref="G33" r:id="rId32"/>
+    <hyperlink ref="G37" r:id="rId33"/>
+    <hyperlink ref="G34" r:id="rId34"/>
+    <hyperlink ref="G35" r:id="rId35"/>
+    <hyperlink ref="G38" r:id="rId36"/>
+    <hyperlink ref="G36" r:id="rId37"/>
+    <hyperlink ref="G39" r:id="rId38"/>
+    <hyperlink ref="G40" r:id="rId39"/>
+    <hyperlink ref="G41" r:id="rId40"/>
+    <hyperlink ref="G42" r:id="rId41"/>
+    <hyperlink ref="G43" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
